--- a/route/timepoints/timepoints_4.xlsx
+++ b/route/timepoints/timepoints_4.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="33">
   <si>
     <t>Timepoints for Driver Position 4</t>
   </si>
   <si>
-    <t>Starting Location: 100a Madigan Hospital</t>
+    <t>Starting Location: 772b Evergreen McChord Lodging</t>
   </si>
   <si>
     <t>Stop ID</t>
@@ -40,28 +40,79 @@
     <t>Madigan Hospital</t>
   </si>
   <si>
-    <t>to Lakewood</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>801a</t>
-  </si>
-  <si>
-    <t>512 Park &amp; Ride</t>
+    <t>to Passenger Terminal</t>
+  </si>
+  <si>
+    <t>18:15:00</t>
+  </si>
+  <si>
+    <t>772b</t>
+  </si>
+  <si>
+    <t>Evergreen McChord Lodging</t>
   </si>
   <si>
     <t>to Madigan</t>
   </si>
   <si>
-    <t>07:20:00</t>
-  </si>
-  <si>
-    <t>to Joint Base Headquarters</t>
-  </si>
-  <si>
-    <t>07:40:00</t>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>to Lewis North</t>
+  </si>
+  <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
+  </si>
+  <si>
+    <t>19:10:00</t>
+  </si>
+  <si>
+    <t>19:35:00</t>
+  </si>
+  <si>
+    <t>19:50:00</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
+    <t>20:55:00</t>
+  </si>
+  <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:25:00</t>
+  </si>
+  <si>
+    <t>21:50:00</t>
+  </si>
+  <si>
+    <t>22:15:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>22:45:00</t>
+  </si>
+  <si>
+    <t>23:10:00</t>
+  </si>
+  <si>
+    <t>23:35:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
   </si>
 </sst>
 </file>
@@ -438,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,16 +547,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -516,10 +567,1228 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/route/timepoints/timepoints_4.xlsx
+++ b/route/timepoints/timepoints_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
   <si>
     <t>Timepoints for Driver Position 4</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +589,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -645,30 +645,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -701,44 +701,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -757,114 +757,114 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -875,108 +875,108 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -987,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1001,10 +1001,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1015,80 +1015,80 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1113,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1127,10 +1127,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1141,94 +1141,94 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1239,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1253,178 +1253,178 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1438,49 +1438,49 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1508,286 +1508,34 @@
         <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="4" t="s">
         <v>32</v>
       </c>
     </row>

--- a/route/timepoints/timepoints_4.xlsx
+++ b/route/timepoints/timepoints_4.xlsx
@@ -55,13 +55,13 @@
     <t>to Madigan</t>
   </si>
   <si>
-    <t>18:30:00</t>
+    <t>18:31:39</t>
   </si>
   <si>
     <t>to Lewis North</t>
   </si>
   <si>
-    <t>18:45:00</t>
+    <t>18:46:39</t>
   </si>
   <si>
     <t>480a</t>
@@ -70,49 +70,49 @@
     <t>Warrior Zone</t>
   </si>
   <si>
-    <t>19:10:00</t>
-  </si>
-  <si>
-    <t>19:35:00</t>
-  </si>
-  <si>
-    <t>19:50:00</t>
-  </si>
-  <si>
-    <t>20:05:00</t>
-  </si>
-  <si>
-    <t>20:30:00</t>
-  </si>
-  <si>
-    <t>20:55:00</t>
-  </si>
-  <si>
-    <t>21:10:00</t>
-  </si>
-  <si>
-    <t>21:25:00</t>
-  </si>
-  <si>
-    <t>21:50:00</t>
-  </si>
-  <si>
-    <t>22:15:00</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>22:45:00</t>
-  </si>
-  <si>
-    <t>23:10:00</t>
-  </si>
-  <si>
-    <t>23:35:00</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
+    <t>19:11:39</t>
+  </si>
+  <si>
+    <t>19:36:39</t>
+  </si>
+  <si>
+    <t>19:53:18</t>
+  </si>
+  <si>
+    <t>20:08:18</t>
+  </si>
+  <si>
+    <t>20:33:18</t>
+  </si>
+  <si>
+    <t>20:58:18</t>
+  </si>
+  <si>
+    <t>21:14:57</t>
+  </si>
+  <si>
+    <t>21:29:57</t>
+  </si>
+  <si>
+    <t>21:54:57</t>
+  </si>
+  <si>
+    <t>22:19:57</t>
+  </si>
+  <si>
+    <t>22:36:36</t>
+  </si>
+  <si>
+    <t>22:51:36</t>
+  </si>
+  <si>
+    <t>23:16:36</t>
+  </si>
+  <si>
+    <t>23:41:36</t>
+  </si>
+  <si>
+    <t>23:58:15</t>
   </si>
 </sst>
 </file>
